--- a/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>32386.484375</v>
+        <v>32377.35546875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>32386.484375</v>
+        <v>32377.35546875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1633.0</v>
+        <v>1112.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2809.0</v>
+        <v>2049.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1112.0</v>
+        <v>1633.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2049.0</v>
+        <v>2809.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3484.0</v>
+        <v>3245.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2829.0</v>
+        <v>3305.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3245.0</v>
+        <v>3484.0</v>
       </c>
       <c r="D16" t="n">
-        <v>3305.0</v>
+        <v>2829.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4483.0</v>
+        <v>4307.0</v>
       </c>
       <c r="D17" t="n">
-        <v>3369.0</v>
+        <v>2322.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4706.0</v>
+        <v>4612.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2674.0</v>
+        <v>2035.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4307.0</v>
+        <v>4706.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2322.0</v>
+        <v>2674.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4612.0</v>
+        <v>4483.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2035.0</v>
+        <v>3369.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>23.0</v>
+        <v>47.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>5199.0</v>
+        <v>5185.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2182.0</v>
+        <v>3258.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>5530.0</v>
+        <v>5468.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1424.0</v>
+        <v>2606.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4608.0</v>
+        <v>5199.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1198.0</v>
+        <v>2182.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>41.0</v>
+        <v>3.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4985.0</v>
+        <v>5530.0</v>
       </c>
       <c r="D24" t="n">
-        <v>140.0</v>
+        <v>1424.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>6107.0</v>
+        <v>4608.0</v>
       </c>
       <c r="D25" t="n">
-        <v>669.0</v>
+        <v>1198.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>6101.0</v>
+        <v>4985.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1110.0</v>
+        <v>140.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>6734.0</v>
+        <v>6107.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1453.0</v>
+        <v>669.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>7265.0</v>
+        <v>6101.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1268.0</v>
+        <v>1110.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>6898.0</v>
+        <v>6734.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1885.0</v>
+        <v>1453.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>6271.0</v>
+        <v>7265.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2135.0</v>
+        <v>1268.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6347.0</v>
+        <v>6898.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2683.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.0</v>
+        <v>40.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>5989.0</v>
+        <v>6271.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2873.0</v>
+        <v>2135.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>5468.0</v>
+        <v>6347.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2606.0</v>
+        <v>2683.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>5185.0</v>
+        <v>5989.0</v>
       </c>
       <c r="D34" t="n">
-        <v>3258.0</v>
+        <v>2873.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>7608.0</v>
+        <v>7352.0</v>
       </c>
       <c r="D45" t="n">
-        <v>4458.0</v>
+        <v>4506.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>37.0</v>
+        <v>6.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>7762.0</v>
+        <v>7608.0</v>
       </c>
       <c r="D46" t="n">
-        <v>4595.0</v>
+        <v>4458.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19.0</v>
+        <v>37.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>7732.0</v>
+        <v>7762.0</v>
       </c>
       <c r="D47" t="n">
-        <v>4723.0</v>
+        <v>4595.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>7555.0</v>
+        <v>7732.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4819.0</v>
+        <v>4723.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>7611.0</v>
+        <v>7555.0</v>
       </c>
       <c r="D49" t="n">
-        <v>5184.0</v>
+        <v>4819.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>7352.0</v>
+        <v>7611.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4506.0</v>
+        <v>5184.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>32377.35546875</v>
+        <v>32358.716796875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>32377.35546875</v>
+        <v>32358.716796875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3245.0</v>
+        <v>3484.0</v>
       </c>
       <c r="D15" t="n">
-        <v>3305.0</v>
+        <v>2829.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3484.0</v>
+        <v>3245.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2829.0</v>
+        <v>3305.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4307.0</v>
+        <v>4483.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2322.0</v>
+        <v>3369.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4612.0</v>
+        <v>4706.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2035.0</v>
+        <v>2674.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4706.0</v>
+        <v>4307.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2674.0</v>
+        <v>2322.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4483.0</v>
+        <v>4612.0</v>
       </c>
       <c r="D20" t="n">
-        <v>3369.0</v>
+        <v>2035.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>47.0</v>
+        <v>34.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>5185.0</v>
+        <v>4608.0</v>
       </c>
       <c r="D21" t="n">
-        <v>3258.0</v>
+        <v>1198.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>5468.0</v>
+        <v>4985.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2606.0</v>
+        <v>140.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>5199.0</v>
+        <v>6107.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2182.0</v>
+        <v>669.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>5530.0</v>
+        <v>6101.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1424.0</v>
+        <v>1110.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>34.0</v>
+        <v>3.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>4608.0</v>
+        <v>5530.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1198.0</v>
+        <v>1424.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>4985.0</v>
+        <v>5199.0</v>
       </c>
       <c r="D26" t="n">
-        <v>140.0</v>
+        <v>2182.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>6107.0</v>
+        <v>5468.0</v>
       </c>
       <c r="D27" t="n">
-        <v>669.0</v>
+        <v>2606.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>22.0</v>
+        <v>47.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>6101.0</v>
+        <v>5185.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1110.0</v>
+        <v>3258.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>6734.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1453.0</v>
+        <v>3561.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>7265.0</v>
+        <v>5989.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1268.0</v>
+        <v>2873.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.0</v>
+        <v>40.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6898.0</v>
+        <v>6271.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1885.0</v>
+        <v>2135.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>6271.0</v>
+        <v>6347.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2135.0</v>
+        <v>2683.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>6347.0</v>
+        <v>6426.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2683.0</v>
+        <v>3173.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12.0</v>
+        <v>46.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>5989.0</v>
+        <v>6807.0</v>
       </c>
       <c r="D34" t="n">
-        <v>2873.0</v>
+        <v>2993.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>5900.0</v>
+        <v>7248.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3561.0</v>
+        <v>3779.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>6426.0</v>
+        <v>7352.0</v>
       </c>
       <c r="D36" t="n">
-        <v>3173.0</v>
+        <v>4506.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>6807.0</v>
+        <v>7280.0</v>
       </c>
       <c r="D37" t="n">
-        <v>2993.0</v>
+        <v>4899.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38.0</v>
+        <v>17.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>7392.0</v>
+        <v>7611.0</v>
       </c>
       <c r="D38" t="n">
-        <v>2244.0</v>
+        <v>5184.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>7545.0</v>
+        <v>7555.0</v>
       </c>
       <c r="D39" t="n">
-        <v>2801.0</v>
+        <v>4819.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.0</v>
+        <v>19.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>7509.0</v>
+        <v>7732.0</v>
       </c>
       <c r="D40" t="n">
-        <v>3239.0</v>
+        <v>4723.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>7462.0</v>
+        <v>7762.0</v>
       </c>
       <c r="D41" t="n">
-        <v>3590.0</v>
+        <v>4595.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>7573.0</v>
+        <v>7608.0</v>
       </c>
       <c r="D42" t="n">
-        <v>3716.0</v>
+        <v>4458.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>7248.0</v>
+        <v>7541.0</v>
       </c>
       <c r="D43" t="n">
-        <v>3779.0</v>
+        <v>3981.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>7541.0</v>
+        <v>7573.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3981.0</v>
+        <v>3716.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>7352.0</v>
+        <v>7462.0</v>
       </c>
       <c r="D45" t="n">
-        <v>4506.0</v>
+        <v>3590.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.0</v>
+        <v>44.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>7608.0</v>
+        <v>7509.0</v>
       </c>
       <c r="D46" t="n">
-        <v>4458.0</v>
+        <v>3239.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>7762.0</v>
+        <v>7545.0</v>
       </c>
       <c r="D47" t="n">
-        <v>4595.0</v>
+        <v>2801.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19.0</v>
+        <v>38.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>7732.0</v>
+        <v>7392.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4723.0</v>
+        <v>2244.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>7555.0</v>
+        <v>6898.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4819.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43.0</v>
+        <v>1.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>7280.0</v>
+        <v>6734.0</v>
       </c>
       <c r="D50" t="n">
-        <v>4899.0</v>
+        <v>1453.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>7611.0</v>
+        <v>7265.0</v>
       </c>
       <c r="D51" t="n">
-        <v>5184.0</v>
+        <v>1268.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>32358.716796875</v>
+        <v>39306.31640625</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>32358.716796875</v>
+        <v>39306.31640625</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,16 +108,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>401.0</v>
+        <v>2233.0</v>
       </c>
       <c r="D4" t="n">
-        <v>841.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>675.0</v>
+        <v>3177.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.0</v>
+        <v>756.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0</v>
+        <v>4985.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2216.0</v>
+        <v>140.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.0</v>
+        <v>4608.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2676.0</v>
+        <v>1198.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1112.0</v>
+        <v>6107.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2049.0</v>
+        <v>669.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1633.0</v>
+        <v>6101.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2809.0</v>
+        <v>1110.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1916.0</v>
+        <v>6734.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1569.0</v>
+        <v>1453.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2233.0</v>
+        <v>7265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0</v>
+        <v>1268.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3177.0</v>
+        <v>7392.0</v>
       </c>
       <c r="D12" t="n">
-        <v>756.0</v>
+        <v>2244.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3082.0</v>
+        <v>7545.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1644.0</v>
+        <v>2801.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>48.0</v>
+        <v>9.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3023.0</v>
+        <v>6898.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1942.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3484.0</v>
+        <v>6271.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2829.0</v>
+        <v>2135.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>32.0</v>
+        <v>3.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3245.0</v>
+        <v>5530.0</v>
       </c>
       <c r="D16" t="n">
-        <v>3305.0</v>
+        <v>1424.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4483.0</v>
+        <v>4612.0</v>
       </c>
       <c r="D17" t="n">
-        <v>3369.0</v>
+        <v>2035.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4706.0</v>
+        <v>5199.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2674.0</v>
+        <v>2182.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4307.0</v>
+        <v>5468.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2322.0</v>
+        <v>2606.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4612.0</v>
+        <v>6347.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2035.0</v>
+        <v>2683.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34.0</v>
+        <v>12.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4608.0</v>
+        <v>5989.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1198.0</v>
+        <v>2873.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4985.0</v>
+        <v>6807.0</v>
       </c>
       <c r="D22" t="n">
-        <v>140.0</v>
+        <v>2993.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>6107.0</v>
+        <v>7509.0</v>
       </c>
       <c r="D23" t="n">
-        <v>669.0</v>
+        <v>3239.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>6101.0</v>
+        <v>7462.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1110.0</v>
+        <v>3590.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>5530.0</v>
+        <v>7573.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1424.0</v>
+        <v>3716.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5199.0</v>
+        <v>7541.0</v>
       </c>
       <c r="D26" t="n">
-        <v>2182.0</v>
+        <v>3981.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>5468.0</v>
+        <v>7608.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2606.0</v>
+        <v>4458.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>47.0</v>
+        <v>30.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>5185.0</v>
+        <v>7352.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3258.0</v>
+        <v>4506.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20.0</v>
+        <v>43.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>5900.0</v>
+        <v>7280.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3561.0</v>
+        <v>4899.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>5989.0</v>
+        <v>7611.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2873.0</v>
+        <v>5184.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40.0</v>
+        <v>27.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6271.0</v>
+        <v>7555.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2135.0</v>
+        <v>4819.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>6347.0</v>
+        <v>7732.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2683.0</v>
+        <v>4723.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>6426.0</v>
+        <v>7762.0</v>
       </c>
       <c r="D33" t="n">
-        <v>3173.0</v>
+        <v>4595.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>46.0</v>
+        <v>36.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6807.0</v>
+        <v>7248.0</v>
       </c>
       <c r="D34" t="n">
-        <v>2993.0</v>
+        <v>3779.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>7248.0</v>
+        <v>6426.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3779.0</v>
+        <v>3173.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>7352.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D36" t="n">
-        <v>4506.0</v>
+        <v>3561.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>7280.0</v>
+        <v>5185.0</v>
       </c>
       <c r="D37" t="n">
-        <v>4899.0</v>
+        <v>3258.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>7611.0</v>
+        <v>4706.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5184.0</v>
+        <v>2674.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>7555.0</v>
+        <v>4483.0</v>
       </c>
       <c r="D39" t="n">
-        <v>4819.0</v>
+        <v>3369.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>7732.0</v>
+        <v>4307.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4723.0</v>
+        <v>2322.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>7762.0</v>
+        <v>3082.0</v>
       </c>
       <c r="D41" t="n">
-        <v>4595.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.0</v>
+        <v>48.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>7608.0</v>
+        <v>3023.0</v>
       </c>
       <c r="D42" t="n">
-        <v>4458.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>7541.0</v>
+        <v>3484.0</v>
       </c>
       <c r="D43" t="n">
-        <v>3981.0</v>
+        <v>2829.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.0</v>
+        <v>32.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>7573.0</v>
+        <v>3245.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3716.0</v>
+        <v>3305.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>7462.0</v>
+        <v>1916.0</v>
       </c>
       <c r="D45" t="n">
-        <v>3590.0</v>
+        <v>1569.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44.0</v>
+        <v>24.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>7509.0</v>
+        <v>1633.0</v>
       </c>
       <c r="D46" t="n">
-        <v>3239.0</v>
+        <v>2809.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>7545.0</v>
+        <v>1112.0</v>
       </c>
       <c r="D47" t="n">
-        <v>2801.0</v>
+        <v>2049.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>7392.0</v>
+        <v>10.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2244.0</v>
+        <v>2676.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>6898.0</v>
+        <v>23.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1885.0</v>
+        <v>2216.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>6734.0</v>
+        <v>675.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1453.0</v>
+        <v>1006.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>7265.0</v>
+        <v>401.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1268.0</v>
+        <v>841.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/att48.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>39306.31640625</v>
+        <v>32920.296875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39306.31640625</v>
+        <v>32920.296875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,16 +108,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2233.0</v>
+        <v>401.0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>841.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3177.0</v>
+        <v>675.0</v>
       </c>
       <c r="D5" t="n">
-        <v>756.0</v>
+        <v>1006.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4985.0</v>
+        <v>23.0</v>
       </c>
       <c r="D6" t="n">
-        <v>140.0</v>
+        <v>2216.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34.0</v>
+        <v>45.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4608.0</v>
+        <v>10.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1198.0</v>
+        <v>2676.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>6107.0</v>
+        <v>1112.0</v>
       </c>
       <c r="D8" t="n">
-        <v>669.0</v>
+        <v>2049.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6101.0</v>
+        <v>1633.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1110.0</v>
+        <v>2809.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0</v>
+        <v>42.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>6734.0</v>
+        <v>1916.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1453.0</v>
+        <v>1569.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7265.0</v>
+        <v>2233.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>7392.0</v>
+        <v>3177.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2244.0</v>
+        <v>756.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31.0</v>
+        <v>5.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>7545.0</v>
+        <v>3082.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2801.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.0</v>
+        <v>48.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>6898.0</v>
+        <v>3023.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1885.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6271.0</v>
+        <v>3484.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2135.0</v>
+        <v>2829.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>5530.0</v>
+        <v>3245.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1424.0</v>
+        <v>3305.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4612.0</v>
+        <v>4483.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2035.0</v>
+        <v>3369.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>5199.0</v>
+        <v>4307.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2182.0</v>
+        <v>2322.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5468.0</v>
+        <v>4706.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2606.0</v>
+        <v>2674.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>6347.0</v>
+        <v>4612.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2683.0</v>
+        <v>2035.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>5989.0</v>
+        <v>5199.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2873.0</v>
+        <v>2182.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>46.0</v>
+        <v>3.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>6807.0</v>
+        <v>5530.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2993.0</v>
+        <v>1424.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>7509.0</v>
+        <v>4608.0</v>
       </c>
       <c r="D23" t="n">
-        <v>3239.0</v>
+        <v>1198.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18.0</v>
+        <v>41.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>7462.0</v>
+        <v>4985.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3590.0</v>
+        <v>140.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>7573.0</v>
+        <v>6107.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3716.0</v>
+        <v>669.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>7541.0</v>
+        <v>6101.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3981.0</v>
+        <v>1110.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>7608.0</v>
+        <v>6734.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4458.0</v>
+        <v>1453.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>7352.0</v>
+        <v>7265.0</v>
       </c>
       <c r="D28" t="n">
-        <v>4506.0</v>
+        <v>1268.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43.0</v>
+        <v>9.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>7280.0</v>
+        <v>6898.0</v>
       </c>
       <c r="D29" t="n">
-        <v>4899.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>7611.0</v>
+        <v>6271.0</v>
       </c>
       <c r="D30" t="n">
-        <v>5184.0</v>
+        <v>2135.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>7555.0</v>
+        <v>6347.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4819.0</v>
+        <v>2683.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>7732.0</v>
+        <v>5989.0</v>
       </c>
       <c r="D32" t="n">
-        <v>4723.0</v>
+        <v>2873.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>7762.0</v>
+        <v>5468.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4595.0</v>
+        <v>2606.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>7248.0</v>
+        <v>5185.0</v>
       </c>
       <c r="D34" t="n">
-        <v>3779.0</v>
+        <v>3258.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>6426.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3173.0</v>
+        <v>3561.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5900.0</v>
+        <v>6426.0</v>
       </c>
       <c r="D36" t="n">
-        <v>3561.0</v>
+        <v>3173.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>5185.0</v>
+        <v>6807.0</v>
       </c>
       <c r="D37" t="n">
-        <v>3258.0</v>
+        <v>2993.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13.0</v>
+        <v>38.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>4706.0</v>
+        <v>7392.0</v>
       </c>
       <c r="D38" t="n">
-        <v>2674.0</v>
+        <v>2244.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>4483.0</v>
+        <v>7545.0</v>
       </c>
       <c r="D39" t="n">
-        <v>3369.0</v>
+        <v>2801.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4307.0</v>
+        <v>7509.0</v>
       </c>
       <c r="D40" t="n">
-        <v>2322.0</v>
+        <v>3239.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>3082.0</v>
+        <v>7462.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1644.0</v>
+        <v>3590.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>48.0</v>
+        <v>7.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>3023.0</v>
+        <v>7573.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1942.0</v>
+        <v>3716.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>3484.0</v>
+        <v>7248.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2829.0</v>
+        <v>3779.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>3245.0</v>
+        <v>7541.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3305.0</v>
+        <v>3981.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42.0</v>
+        <v>6.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>1916.0</v>
+        <v>7608.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.0</v>
+        <v>4458.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>1633.0</v>
+        <v>7762.0</v>
       </c>
       <c r="D46" t="n">
-        <v>2809.0</v>
+        <v>4595.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>1112.0</v>
+        <v>7732.0</v>
       </c>
       <c r="D47" t="n">
-        <v>2049.0</v>
+        <v>4723.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45.0</v>
+        <v>27.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>10.0</v>
+        <v>7555.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2676.0</v>
+        <v>4819.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>23.0</v>
+        <v>7611.0</v>
       </c>
       <c r="D49" t="n">
-        <v>2216.0</v>
+        <v>5184.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>675.0</v>
+        <v>7280.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1006.0</v>
+        <v>4899.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>401.0</v>
+        <v>7352.0</v>
       </c>
       <c r="D51" t="n">
-        <v>841.0</v>
+        <v>4506.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
